--- a/Test Data/FC_Gallery_PanelAccessories_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelAccessories_FC600_Series_Panels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A21019-C1CB-43E4-B1B5-992CADAB0759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782FA9FB-DD4A-462D-9D74-491EBA1E4CA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>

--- a/Test Data/FC_Gallery_PanelAccessories_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelAccessories_FC600_Series_Panels.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782FA9FB-DD4A-462D-9D74-491EBA1E4CA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EED556A-17E6-4C55-8272-DD4E43D42E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="19" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
-    <sheet name="Turkey" sheetId="20" r:id="rId3"/>
+    <sheet name="Denmark" sheetId="21" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="22" r:id="rId4"/>
+    <sheet name="Norway" sheetId="23" r:id="rId5"/>
+    <sheet name="Turkey" sheetId="20" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -89,6 +92,24 @@
   </si>
   <si>
     <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-3446/T2004</t>
+  </si>
+  <si>
+    <t>Sweden Market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T2025</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-3464/T1919</t>
   </si>
 </sst>
 </file>
@@ -739,10 +760,361 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4454B46A-33EF-47B2-AF7C-CB0C8394FD62}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01A807A-A84E-40E5-99B9-9D6019DB508B}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5115C1E0-EC32-4DCB-8C20-323849B43099}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADAF083-F6C6-4BB6-BF3B-0D4BB1122A3C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/FC_Gallery_PanelAccessories_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelAccessories_FC600_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EED556A-17E6-4C55-8272-DD4E43D42E4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE7D782-3D86-446E-917A-1B9A8A17EF4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="19" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Sweden" sheetId="22" r:id="rId4"/>
     <sheet name="Norway" sheetId="23" r:id="rId5"/>
     <sheet name="Turkey" sheetId="20" r:id="rId6"/>
+    <sheet name="Italy" sheetId="24" r:id="rId7"/>
+    <sheet name="Spain" sheetId="25" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -110,6 +112,18 @@
   </si>
   <si>
     <t>NGC-3464/T1919</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1967</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T2128</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5115C1E0-EC32-4DCB-8C20-323849B43099}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1223,4 +1237,238 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A87EB7-DA10-4CBF-8C65-D824D8CC7DFD}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13300173-A2CA-48EB-A6F9-C2AB7558B238}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_PanelAccessories_FC600_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_PanelAccessories_FC600_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE7D782-3D86-446E-917A-1B9A8A17EF4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E162A6D-6DA4-4CED-995E-89C7C33F3671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="19" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>NGC-3442/T2128</t>
+  </si>
+  <si>
+    <t>NGC-3003/T3834</t>
+  </si>
+  <si>
+    <t>MX-BBX</t>
+  </si>
+  <si>
+    <t>MX-DPBX</t>
   </si>
 </sst>
 </file>
@@ -545,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A62A130-09F6-45CB-8D3B-AEFA265C0B3E}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +602,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -640,11 +651,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -660,10 +681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD134A06-A634-446C-81D0-6384ABA20795}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,11 +776,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -775,10 +806,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4454B46A-33EF-47B2-AF7C-CB0C8394FD62}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,11 +903,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -892,10 +933,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01A807A-A84E-40E5-99B9-9D6019DB508B}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,11 +1030,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1009,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5115C1E0-EC32-4DCB-8C20-323849B43099}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A7" sqref="A7:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,11 +1157,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1126,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADAF083-F6C6-4BB6-BF3B-0D4BB1122A3C}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,11 +1282,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1241,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A87EB7-DA10-4CBF-8C65-D824D8CC7DFD}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1409,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1358,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13300173-A2CA-48EB-A6F9-C2AB7558B238}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,11 +1536,21 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
